--- a/resources/experiment 1/metrics/R2/incidence/Enfermedad renal terminal (INC).xlsx
+++ b/resources/experiment 1/metrics/R2/incidence/Enfermedad renal terminal (INC).xlsx
@@ -465,7 +465,7 @@
         <v>0.9214166905535935</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9214166905535935</v>
+        <v>0.9214166905535937</v>
       </c>
       <c r="D2" t="n">
         <v>0.9214166905535935</v>
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9977968118392798</v>
+        <v>0.9976483787829741</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9977974249558083</v>
+        <v>0.9976170025082339</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9977974249558083</v>
+        <v>0.9945397880499397</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9985789125185541</v>
+        <v>0.9976048923654358</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9985789125185541</v>
+        <v>0.9976278939493562</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9985789125185541</v>
+        <v>0.9920679828187332</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9871371956615977</v>
+        <v>0.9981250585842401</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9870623884195412</v>
+        <v>0.9981095829684735</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9870623884195412</v>
+        <v>0.9981122826502028</v>
       </c>
     </row>
   </sheetData>
